--- a/financeiro/input/controleFinanceiropy.xlsx
+++ b/financeiro/input/controleFinanceiropy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Estudos\python\financeiro\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean\arquivos\Documentos\practia\Practia\financeiro\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E58DAD6-4293-43C2-9A5D-8F7BF3A4E213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F101C0A7-0A3A-49B8-8303-08B94BE7644B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="0" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="query" sheetId="1" r:id="rId1"/>
@@ -1336,25 +1336,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AM16" sqref="AM16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="36" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="36" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="31.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>40</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>40</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>40</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>70</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>70</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>70</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>70</v>
       </c>

--- a/financeiro/input/controleFinanceiropy.xlsx
+++ b/financeiro/input/controleFinanceiropy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean\arquivos\Documentos\practia\Practia\financeiro\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F101C0A7-0A3A-49B8-8303-08B94BE7644B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0D0604-D556-488C-9297-E44B602FC470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -286,7 +286,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,6 +417,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -763,9 +771,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1334,10 +1343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN20"/>
+  <dimension ref="A1:AN28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2744,10 +2753,14 @@
         <v>41</v>
       </c>
     </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/financeiro/input/controleFinanceiropy.xlsx
+++ b/financeiro/input/controleFinanceiropy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean\arquivos\Documentos\practia\Practia\financeiro\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0D0604-D556-488C-9297-E44B602FC470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2828B1D-8418-43A3-8507-2A701EAE2205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1346,7 +1346,7 @@
   <dimension ref="A1:AN28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="AL26" sqref="AL26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
